--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E1395-C49E-4CDA-8944-55A5DA5BCA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Model Type" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="136">
   <si>
     <t>Image Based</t>
   </si>
@@ -367,34 +377,113 @@
     <t xml:space="preserve">uses MiraBest and Northern VLA Sky Survey; may be other
 but do not seem super relevant
 </t>
+  </si>
+  <si>
+    <t>GALEX/SDSS</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Image Dimensions</t>
+  </si>
+  <si>
+    <t>Bands</t>
+  </si>
+  <si>
+    <t>CRTS</t>
+  </si>
+  <si>
+    <t>GALEX</t>
+  </si>
+  <si>
+    <t>LOFAR</t>
+  </si>
+  <si>
+    <t>Pan-STARR</t>
+  </si>
+  <si>
+    <t>PLAsTiCC</t>
+  </si>
+  <si>
+    <t>PQDSS</t>
+  </si>
+  <si>
+    <t>ugriz</t>
+  </si>
+  <si>
+    <t>UKIDSS</t>
+  </si>
+  <si>
+    <t>zyjhk</t>
+  </si>
+  <si>
+    <t>WISE</t>
+  </si>
+  <si>
+    <t># of Images</t>
+  </si>
+  <si>
+    <t>grz</t>
+  </si>
+  <si>
+    <t>41M (DR9)</t>
+  </si>
+  <si>
+    <t>152 x 152</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -402,42 +491,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -627,33 +722,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.13"/>
-    <col customWidth="1" min="2" max="2" width="26.63"/>
-    <col customWidth="1" min="3" max="3" width="93.75"/>
-    <col customWidth="1" min="4" max="4" width="23.0"/>
-    <col customWidth="1" min="5" max="5" width="11.25"/>
-    <col customWidth="1" min="6" max="6" width="55.88"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="93.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -673,9 +773,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -687,15 +787,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -704,18 +804,18 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -727,15 +827,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -747,15 +847,15 @@
         <v>19</v>
       </c>
       <c r="E6" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -767,15 +867,15 @@
         <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -787,12 +887,12 @@
         <v>19</v>
       </c>
       <c r="E8" s="1">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -804,15 +904,15 @@
         <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -830,9 +930,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -844,15 +944,15 @@
         <v>37</v>
       </c>
       <c r="E11" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -864,15 +964,15 @@
         <v>40</v>
       </c>
       <c r="E12" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>42</v>
@@ -884,15 +984,15 @@
         <v>23</v>
       </c>
       <c r="E13" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>45</v>
@@ -904,12 +1004,12 @@
         <v>47</v>
       </c>
       <c r="E14" s="1">
-        <v>341.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>48</v>
@@ -921,15 +1021,15 @@
         <v>50</v>
       </c>
       <c r="E15" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>52</v>
@@ -941,15 +1041,15 @@
         <v>54</v>
       </c>
       <c r="E16" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>56</v>
@@ -961,15 +1061,15 @@
         <v>58</v>
       </c>
       <c r="E17" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>60</v>
@@ -981,15 +1081,15 @@
         <v>62</v>
       </c>
       <c r="E18" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>64</v>
@@ -1001,15 +1101,15 @@
         <v>23</v>
       </c>
       <c r="E19" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>67</v>
@@ -1021,15 +1121,15 @@
         <v>69</v>
       </c>
       <c r="E20" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>71</v>
@@ -1047,9 +1147,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>75</v>
@@ -1061,15 +1161,15 @@
         <v>77</v>
       </c>
       <c r="E22" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
@@ -1081,12 +1181,12 @@
         <v>80</v>
       </c>
       <c r="E23" s="1">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
@@ -1098,15 +1198,15 @@
         <v>9</v>
       </c>
       <c r="E24" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>83</v>
@@ -1118,15 +1218,15 @@
         <v>85</v>
       </c>
       <c r="E25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>75</v>
@@ -1138,15 +1238,15 @@
         <v>88</v>
       </c>
       <c r="E26" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>90</v>
@@ -1158,15 +1258,15 @@
         <v>92</v>
       </c>
       <c r="E27" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>21</v>
@@ -1178,18 +1278,18 @@
         <v>77</v>
       </c>
       <c r="E28" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1209,9 +1309,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>97</v>
@@ -1220,15 +1320,15 @@
         <v>98</v>
       </c>
       <c r="E37" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>100</v>
@@ -1240,18 +1340,18 @@
         <v>102</v>
       </c>
       <c r="E38" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -1271,9 +1371,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>106</v>
@@ -1285,15 +1385,15 @@
         <v>108</v>
       </c>
       <c r="E43" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>110</v>
@@ -1305,15 +1405,15 @@
         <v>112</v>
       </c>
       <c r="E44" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>114</v>
@@ -1325,13 +1425,135 @@
         <v>116</v>
       </c>
       <c r="E45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573331B-6BCC-4C05-A624-C416524069A9}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E1395-C49E-4CDA-8944-55A5DA5BCA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6713D-CD90-4DB9-B155-2C5E191C3F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="96" windowWidth="11712" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Type" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="138">
   <si>
     <t>Image Based</t>
   </si>
@@ -409,28 +409,34 @@
     <t>PQDSS</t>
   </si>
   <si>
-    <t>ugriz</t>
-  </si>
-  <si>
     <t>UKIDSS</t>
   </si>
   <si>
-    <t>zyjhk</t>
-  </si>
-  <si>
     <t>WISE</t>
   </si>
   <si>
     <t># of Images</t>
   </si>
   <si>
-    <t>grz</t>
-  </si>
-  <si>
     <t>41M (DR9)</t>
   </si>
   <si>
     <t>152 x 152</t>
+  </si>
+  <si>
+    <t>SKA</t>
+  </si>
+  <si>
+    <t>LSCXKuKaQ</t>
+  </si>
+  <si>
+    <t>ZYJHK</t>
+  </si>
+  <si>
+    <t>UGRIZ</t>
+  </si>
+  <si>
+    <t>GRZ</t>
   </si>
 </sst>
 </file>
@@ -734,26 +740,26 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="93.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="93.6640625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -773,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -793,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -813,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2023</v>
       </c>
@@ -833,7 +839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
@@ -853,7 +859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2017</v>
       </c>
@@ -873,7 +879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -890,7 +896,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -910,7 +916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -930,7 +936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2021</v>
       </c>
@@ -950,7 +956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2021</v>
       </c>
@@ -970,7 +976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -990,7 +996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2017</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2019</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2021</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2022</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2021</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2021</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2023</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2023</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2018</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2022</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2019</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2021</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2019</v>
       </c>
@@ -1284,12 +1290,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2017</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2022</v>
       </c>
@@ -1346,12 +1352,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2022</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2020</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2021</v>
       </c>
@@ -1438,24 +1444,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573331B-6BCC-4C05-A624-C416524069A9}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>120</v>
@@ -1464,26 +1471,26 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
@@ -1497,59 +1504,67 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
     </row>

--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6713D-CD90-4DB9-B155-2C5E191C3F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD5E0F2-1624-4122-A286-A2C1B70FB4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="96" windowWidth="11712" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Type" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
   <si>
     <t>Image Based</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>GRZ</t>
+  </si>
+  <si>
+    <t>4 bands (infrared)</t>
   </si>
 </sst>
 </file>
@@ -740,26 +743,26 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="93.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="55.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -779,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -799,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -819,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2023</v>
       </c>
@@ -839,7 +842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
@@ -859,7 +862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2017</v>
       </c>
@@ -879,7 +882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -896,7 +899,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -916,7 +919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -936,7 +939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2021</v>
       </c>
@@ -956,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2021</v>
       </c>
@@ -976,7 +979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -996,7 +999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2017</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2019</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2021</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2022</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2021</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2021</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2023</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2023</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2021</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2018</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2022</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2019</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2021</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2019</v>
       </c>
@@ -1290,12 +1293,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2017</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2022</v>
       </c>
@@ -1352,12 +1355,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2022</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2020</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2021</v>
       </c>
@@ -1446,18 +1449,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573331B-6BCC-4C05-A624-C416524069A9}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>119</v>
       </c>
@@ -1471,12 +1474,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
@@ -1504,32 +1507,32 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1537,12 +1540,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>128</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
@@ -1558,12 +1561,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>

--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD5E0F2-1624-4122-A286-A2C1B70FB4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816997FF-81F6-4C6A-8686-4A17AA92579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Type" sheetId="1" r:id="rId1"/>
@@ -1450,7 +1450,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816997FF-81F6-4C6A-8686-4A17AA92579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3994ABE-1C4C-40C5-8143-6E8B2BD5FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Type" sheetId="1" r:id="rId1"/>
     <sheet name="Datasets" sheetId="2" r:id="rId2"/>
+    <sheet name="Astronomy and XAI Papers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
   <si>
     <t>Image Based</t>
   </si>
@@ -440,6 +441,63 @@
   </si>
   <si>
     <t>4 bands (infrared)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Paper Title</t>
+  </si>
+  <si>
+    <t>Dey B et al</t>
+  </si>
+  <si>
+    <t>Capsule Networks for ugriz bandwidths</t>
+  </si>
+  <si>
+    <t>Henghes et al</t>
+  </si>
+  <si>
+    <t>Investigating Deep Learning Methods for Obtaining Photometric Redshift Estimation from Images</t>
+  </si>
+  <si>
+    <t>test various deep learning techniques for ugriz sdss data (CNN, inceptation, etc)</t>
+  </si>
+  <si>
+    <t>McNeely et al</t>
+  </si>
+  <si>
+    <t>Detecting distributional difference in labeled sequence data with application to tropical cyclone satellite imagery</t>
+  </si>
+  <si>
+    <t>new nonparametric test of association approach with neural network</t>
+  </si>
+  <si>
+    <t>Paoletti et al</t>
+  </si>
+  <si>
+    <t>Capsule Networks for Hyperspectral Image Classification</t>
+  </si>
+  <si>
+    <t>capsule networks for hyperspectral images</t>
+  </si>
+  <si>
+    <t>Deep Pyramidal Residual Networks for Spectral - Spatial Hyperspectral Image Classification</t>
+  </si>
+  <si>
+    <t>pyramidal residual networks for hyperspectral image classification</t>
+  </si>
+  <si>
+    <t>Haut et al</t>
+  </si>
+  <si>
+    <t>Visual Attention-Driven Hyperspectral Image Classification</t>
+  </si>
+  <si>
+    <t>combination of vision-attention and residual model for hyperspectral image classification</t>
   </si>
 </sst>
 </file>
@@ -495,12 +553,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -515,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,6 +587,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,8 +809,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -754,7 +820,7 @@
     <col min="3" max="3" width="106.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" customWidth="1"/>
+    <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1449,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573331B-6BCC-4C05-A624-C416524069A9}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1577,4 +1643,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCF863B-728F-4752-9868-C830192FDF69}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3994ABE-1C4C-40C5-8143-6E8B2BD5FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC362FE-B3DB-4664-AD6D-E3A4B9B174E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Type" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
   <si>
     <t>Image Based</t>
   </si>
@@ -498,6 +498,27 @@
   </si>
   <si>
     <t>combination of vision-attention and residual model for hyperspectral image classification</t>
+  </si>
+  <si>
+    <t>Github Link or Architecture</t>
+  </si>
+  <si>
+    <t>n/a; review work</t>
+  </si>
+  <si>
+    <t>from Astroinformatics of galaxies and quasars: a new general method for photometric redshifts estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGE: Fuzzy-Kmeans -&gt; Experts -&gt; NN -&gt; Output Node
+Optical Photometry: clustered 4D feature space -&gt; 
+train single expert on each cluster -&gt; 
+gating network combines distinct outputs
+redshifts of quasars with optical photometry: 4D clustering -&gt; experts trained on 8D features space generated
+by 4 colors -&gt; 
+rest similar to first experiment
+(.15 for fuzzy clustering)
+redshift and uv: seems like a similar experiment as others 
+except 6 uncertainties from 5 SDSS optical filters and 2 uv filters </t>
   </si>
 </sst>
 </file>
@@ -579,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,6 +610,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,6 +631,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1761172</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4182439</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640D675D-D51C-EEF1-884B-CA35960D02AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21792247" y="4429125"/>
+          <a:ext cx="2421267" cy="2267853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,10 +883,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -821,14 +897,16 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -847,8 +925,11 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G2" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
@@ -867,8 +948,11 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G3" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2011</v>
       </c>
@@ -887,8 +971,11 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G4" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2023</v>
       </c>
@@ -908,7 +995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
@@ -928,7 +1015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2017</v>
       </c>
@@ -948,7 +1035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -965,7 +1052,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2023</v>
       </c>
@@ -985,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -1005,7 +1092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2021</v>
       </c>
@@ -1025,7 +1112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2021</v>
       </c>
@@ -1045,7 +1132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2008</v>
       </c>
@@ -1065,7 +1152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2017</v>
       </c>
@@ -1082,7 +1169,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2019</v>
       </c>
@@ -1102,7 +1189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2021</v>
       </c>
@@ -1359,12 +1446,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -1384,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2017</v>
       </c>
@@ -1401,7 +1488,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2022</v>
       </c>
@@ -1421,12 +1508,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -1446,7 +1538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2022</v>
       </c>
@@ -1466,7 +1558,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2020</v>
       </c>
@@ -1486,7 +1578,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2021</v>
       </c>
@@ -1508,6 +1600,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC362FE-B3DB-4664-AD6D-E3A4B9B174E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D11F42-59F5-4739-9695-60449F0CBF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Type" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
-  <si>
-    <t>Image Based</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -500,32 +497,26 @@
     <t>combination of vision-attention and residual model for hyperspectral image classification</t>
   </si>
   <si>
-    <t>Github Link or Architecture</t>
-  </si>
-  <si>
-    <t>n/a; review work</t>
-  </si>
-  <si>
     <t>from Astroinformatics of galaxies and quasars: a new general method for photometric redshifts estimation</t>
   </si>
   <si>
-    <t xml:space="preserve">WGE: Fuzzy-Kmeans -&gt; Experts -&gt; NN -&gt; Output Node
-Optical Photometry: clustered 4D feature space -&gt; 
-train single expert on each cluster -&gt; 
-gating network combines distinct outputs
-redshifts of quasars with optical photometry: 4D clustering -&gt; experts trained on 8D features space generated
-by 4 colors -&gt; 
-rest similar to first experiment
-(.15 for fuzzy clustering)
-redshift and uv: seems like a similar experiment as others 
-except 6 uncertainties from 5 SDSS optical filters and 2 uv filters </t>
+    <t>Has Github Link or Architecture?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://github.com/mb010/AstroAttention</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -573,6 +564,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -597,10 +595,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -616,8 +615,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -885,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -901,195 +905,216 @@
     <col min="8" max="8" width="90.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G1" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>158</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2023</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="1">
-        <v>68</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
-        <v>175</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1097,156 +1122,156 @@
         <v>2021</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
-        <v>341</v>
+        <v>135</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1254,39 +1279,39 @@
         <v>2021</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="1">
-        <v>24</v>
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -1294,181 +1319,162 @@
         <v>2023</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E26" s="1">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="1">
-        <v>60</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1476,16 +1482,16 @@
         <v>2017</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="E37" s="1">
         <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1493,49 +1499,49 @@
         <v>2022</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E38" s="1">
         <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H40" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1543,19 +1549,19 @@
         <v>2022</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E43" s="1">
         <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1563,19 +1569,19 @@
         <v>2020</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E44" s="1">
         <v>62</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1583,24 +1589,27 @@
         <v>2021</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{173D2748-B985-4581-962A-B751C01DF1BA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1621,116 +1630,116 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1756,19 +1765,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1776,13 +1785,13 @@
         <v>2020</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="E2" s="7">
         <v>22</v>
@@ -1793,13 +1802,13 @@
         <v>2019</v>
       </c>
       <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
         <v>150</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>151</v>
-      </c>
-      <c r="D3" t="s">
-        <v>152</v>
       </c>
       <c r="E3">
         <v>259</v>
@@ -1810,13 +1819,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
         <v>153</v>
-      </c>
-      <c r="D4" t="s">
-        <v>154</v>
       </c>
       <c r="E4">
         <v>335</v>
@@ -1827,13 +1836,13 @@
         <v>2022</v>
       </c>
       <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
         <v>147</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>148</v>
-      </c>
-      <c r="D5" t="s">
-        <v>149</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1844,13 +1853,13 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1861,13 +1870,13 @@
         <v>2019</v>
       </c>
       <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" t="s">
         <v>155</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>156</v>
-      </c>
-      <c r="D17" t="s">
-        <v>157</v>
       </c>
       <c r="E17">
         <v>164</v>

--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D11F42-59F5-4739-9695-60449F0CBF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920F7623-049D-40CD-A4F7-346E5BD6BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Type" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -500,16 +500,16 @@
     <t>from Astroinformatics of galaxies and quasars: a new general method for photometric redshifts estimation</t>
   </si>
   <si>
-    <t>Has Github Link or Architecture?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>https://github.com/mb010/AstroAttention</t>
+  </si>
+  <si>
+    <t>Github Link if Applicable</t>
+  </si>
+  <si>
+    <t>https://github.com/ArunAniyan/RadioGalaxyClassification</t>
   </si>
 </sst>
 </file>
@@ -889,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -1039,6 +1039,9 @@
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1056,6 +1059,9 @@
       <c r="E7" s="1">
         <v>175</v>
       </c>
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1075,6 +1081,9 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">

--- a/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
+++ b/fox_multimessenger-astronomy/documentation/AI Index Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\Research\fox_multimessenger-astronomy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920F7623-049D-40CD-A4F7-346E5BD6BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46682C4E-F22C-41EC-9BCD-22AA8DEDFFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Type" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -890,7 +890,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1105,6 +1105,9 @@
       <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1124,6 +1127,9 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
